--- a/input/模板.xlsx
+++ b/input/模板.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17670" activeTab="1"/>
+    <workbookView windowWidth="18525" windowHeight="17790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$E$98</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -328,11 +331,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -356,24 +359,46 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,9 +411,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,74 +442,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,23 +456,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,6 +530,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -545,19 +554,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,151 +710,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,17 +751,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,8 +780,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,17 +801,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,8 +813,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,22 +834,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,10 +856,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -859,137 +868,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,35 +1048,27 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="4" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="1" fillId="5" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="7" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="8" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1655,7 +1656,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1666,8 +1667,8 @@
   <sheetPr/>
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E98"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1699,1271 +1700,1660 @@
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6">
+        <v>1905.306261</v>
+      </c>
       <c r="C2" s="6">
-        <v>110300</v>
+        <v>692.370683</v>
       </c>
       <c r="D2" s="6">
-        <v>156345</v>
-      </c>
-      <c r="E2" s="6"/>
+        <v>34.386676</v>
+      </c>
+      <c r="E2" s="6">
+        <v>513.192363</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
       <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
       <c r="C4" s="6">
         <v>0</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6">
+        <v>3532.339238</v>
+      </c>
       <c r="C5" s="6">
-        <v>0</v>
+        <v>1646.5932</v>
       </c>
       <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>675.8</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
       <c r="C6" s="6">
-        <v>917</v>
+        <v>3994.602363</v>
       </c>
       <c r="D6" s="6">
-        <v>290</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>3233.39388</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3708.096704</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6">
+        <v>398.485836</v>
+      </c>
       <c r="C8" s="6">
-        <v>1367</v>
+        <v>440.174981</v>
       </c>
       <c r="D8" s="6">
-        <v>1716</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>280.871295</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1746.124304</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6">
+        <v>59.399029</v>
+      </c>
       <c r="C9" s="6">
-        <v>4472</v>
+        <v>229.054086</v>
       </c>
       <c r="D9" s="6">
-        <v>172</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>553.472384</v>
+      </c>
+      <c r="E9" s="6">
+        <v>357.948932</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6">
+        <v>2315.600329</v>
+      </c>
       <c r="C10" s="6">
-        <v>11262</v>
+        <v>2109.804261</v>
       </c>
       <c r="D10" s="6">
-        <v>12908</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>3208.385089</v>
+      </c>
+      <c r="E10" s="6">
+        <v>7685.625998</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
       <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="6">
         <v>0</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
       <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
       <c r="C14" s="6">
-        <v>1763</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6">
-        <v>7635</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="8">
+        <v>8211.130693</v>
+      </c>
       <c r="C15" s="8">
-        <v>130080</v>
+        <v>9112.599574</v>
       </c>
       <c r="D15" s="8">
-        <v>179066</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>7986.309324</v>
+      </c>
+      <c r="E15" s="8">
+        <v>14010.988301</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
       <c r="C16" s="6">
         <v>0</v>
       </c>
       <c r="D16" s="6">
         <v>0</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
       <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
       <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="6">
         <v>0</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
       <c r="C19" s="6">
         <v>0</v>
       </c>
       <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
       <c r="C20" s="6">
         <v>0</v>
       </c>
       <c r="D20" s="6">
         <v>0</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
       <c r="C21" s="6">
         <v>0</v>
       </c>
       <c r="D21" s="6">
         <v>0</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
       <c r="C22" s="6">
-        <v>547</v>
+        <v>0</v>
       </c>
       <c r="D22" s="6">
-        <v>516</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="6">
+        <v>5052.756509</v>
+      </c>
       <c r="C23" s="6">
-        <v>26254</v>
+        <v>4602.739732</v>
       </c>
       <c r="D23" s="6">
-        <v>26010</v>
-      </c>
-      <c r="E23" s="6"/>
+        <v>11922.901795</v>
+      </c>
+      <c r="E23" s="6">
+        <v>12269.773097</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="6">
+        <v>2027.825395</v>
+      </c>
       <c r="C24" s="6">
-        <v>135</v>
+        <v>5996.073625</v>
       </c>
       <c r="D24" s="6">
-        <v>19</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>9.303755</v>
+      </c>
+      <c r="E24" s="6">
+        <v>608.440889</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
       <c r="C25" s="6">
         <v>0</v>
       </c>
       <c r="D25" s="6">
         <v>0</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
       <c r="C26" s="6">
         <v>0</v>
       </c>
       <c r="D26" s="6">
         <v>0</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
       <c r="C27" s="6">
         <v>0</v>
       </c>
       <c r="D27" s="6">
         <v>0</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="6">
+        <v>3232.073987</v>
+      </c>
       <c r="C28" s="6">
-        <v>1778</v>
+        <v>3094.327397</v>
       </c>
       <c r="D28" s="6">
-        <v>2764</v>
-      </c>
-      <c r="E28" s="6"/>
+        <v>2971.687112</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2849.265296</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
       <c r="C29" s="6">
         <v>0</v>
       </c>
       <c r="D29" s="6">
         <v>0</v>
       </c>
-      <c r="E29" s="6"/>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
       <c r="C30" s="6">
         <v>0</v>
       </c>
       <c r="D30" s="6">
         <v>0</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
       <c r="C31" s="6">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="D31" s="6">
-        <v>1670</v>
-      </c>
-      <c r="E31" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
       <c r="C32" s="6">
-        <v>994</v>
+        <v>0</v>
       </c>
       <c r="D32" s="6">
-        <v>1555</v>
-      </c>
-      <c r="E32" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>119.893476</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="6">
+        <v>0</v>
+      </c>
       <c r="C33" s="6">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="D33" s="6">
-        <v>88</v>
-      </c>
-      <c r="E33" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="8">
+        <v>10312.655891</v>
+      </c>
       <c r="C34" s="8">
-        <v>30215</v>
+        <v>13693.140754</v>
       </c>
       <c r="D34" s="8">
-        <v>32622</v>
-      </c>
-      <c r="E34" s="8"/>
+        <v>14903.892662</v>
+      </c>
+      <c r="E34" s="8">
+        <v>15847.372758</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="11"/>
+      <c r="B35" s="11">
+        <v>18523.786584</v>
+      </c>
       <c r="C35" s="11">
-        <v>160296</v>
+        <v>22805.740328</v>
       </c>
       <c r="D35" s="11">
-        <v>211689</v>
-      </c>
-      <c r="E35" s="11"/>
+        <v>22890.201986</v>
+      </c>
+      <c r="E35" s="11">
+        <v>29858.361059</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="6">
+        <v>0</v>
+      </c>
       <c r="C36" s="6">
         <v>0</v>
       </c>
       <c r="D36" s="6">
         <v>0</v>
       </c>
-      <c r="E36" s="6"/>
+      <c r="E36" s="6">
+        <v>3000</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="6">
+        <v>0</v>
+      </c>
       <c r="C37" s="6">
         <v>0</v>
       </c>
       <c r="D37" s="6">
         <v>0</v>
       </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="6">
+        <v>0</v>
+      </c>
       <c r="C38" s="6">
         <v>0</v>
       </c>
       <c r="D38" s="6">
         <v>0</v>
       </c>
-      <c r="E38" s="6"/>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
       <c r="C39" s="6">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="D39" s="6">
         <v>0</v>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="6">
+        <v>1220.965529</v>
+      </c>
       <c r="C40" s="6">
-        <v>21595</v>
+        <v>2098.730311</v>
       </c>
       <c r="D40" s="6">
-        <v>27336</v>
-      </c>
-      <c r="E40" s="6"/>
+        <v>1418.553882</v>
+      </c>
+      <c r="E40" s="6">
+        <v>2347.611576</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="6">
+        <v>51.58147</v>
+      </c>
       <c r="C41" s="6">
-        <v>20525</v>
+        <v>1093.922604</v>
       </c>
       <c r="D41" s="6">
-        <v>18439</v>
-      </c>
-      <c r="E41" s="6"/>
+        <v>2234.642292</v>
+      </c>
+      <c r="E41" s="6">
+        <v>6616.524756</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="6">
+        <v>0</v>
+      </c>
       <c r="C42" s="6">
         <v>0</v>
       </c>
       <c r="D42" s="6">
         <v>0</v>
       </c>
-      <c r="E42" s="6"/>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="6"/>
+      <c r="B43" s="6">
+        <v>94.799994</v>
+      </c>
       <c r="C43" s="6">
-        <v>1612</v>
+        <v>280.630193</v>
       </c>
       <c r="D43" s="6">
-        <v>1684</v>
-      </c>
-      <c r="E43" s="6"/>
+        <v>232.827075</v>
+      </c>
+      <c r="E43" s="6">
+        <v>291.309686</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="6">
+        <v>163.023681</v>
+      </c>
       <c r="C44" s="6">
-        <v>4573</v>
+        <v>302.886776</v>
       </c>
       <c r="D44" s="6">
-        <v>6243</v>
-      </c>
-      <c r="E44" s="6"/>
+        <v>236.383015</v>
+      </c>
+      <c r="E44" s="6">
+        <v>192.43361</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="6">
+        <v>84.354983</v>
+      </c>
       <c r="C45" s="6">
-        <v>13644</v>
+        <v>1954.915679</v>
       </c>
       <c r="D45" s="6">
-        <v>17236</v>
-      </c>
-      <c r="E45" s="6"/>
+        <v>2226.331387</v>
+      </c>
+      <c r="E45" s="6">
+        <v>3789.911382</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="6">
+        <v>0</v>
+      </c>
       <c r="C46" s="6">
         <v>0</v>
       </c>
       <c r="D46" s="6">
         <v>0</v>
       </c>
-      <c r="E46" s="6"/>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="6">
+        <v>0</v>
+      </c>
       <c r="C47" s="6">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="D47" s="6">
         <v>0</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="6">
+        <v>0</v>
+      </c>
       <c r="C48" s="6">
         <v>0</v>
       </c>
       <c r="D48" s="6">
         <v>0</v>
       </c>
-      <c r="E48" s="6"/>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="8"/>
+      <c r="B49" s="8">
+        <v>1614.725657</v>
+      </c>
       <c r="C49" s="8">
-        <v>61949</v>
+        <v>8341.085563</v>
       </c>
       <c r="D49" s="8">
-        <v>70939</v>
-      </c>
-      <c r="E49" s="8"/>
+        <v>6348.737651</v>
+      </c>
+      <c r="E49" s="8">
+        <v>16237.79101</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="6">
+        <v>6375</v>
+      </c>
       <c r="C50" s="6">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D50" s="6">
-        <v>0</v>
-      </c>
-      <c r="E50" s="6"/>
+        <v>3350</v>
+      </c>
+      <c r="E50" s="6">
+        <v>2500</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="6"/>
+      <c r="B51" s="6">
+        <v>0</v>
+      </c>
       <c r="C51" s="6">
         <v>0</v>
       </c>
       <c r="D51" s="6">
         <v>0</v>
       </c>
-      <c r="E51" s="6"/>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="6"/>
+      <c r="B52" s="6">
+        <v>0</v>
+      </c>
       <c r="C52" s="6">
         <v>0</v>
       </c>
       <c r="D52" s="6">
         <v>0</v>
       </c>
-      <c r="E52" s="6"/>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="6"/>
+      <c r="B53" s="6">
+        <v>0</v>
+      </c>
       <c r="C53" s="6">
         <v>0</v>
       </c>
       <c r="D53" s="6">
         <v>0</v>
       </c>
-      <c r="E53" s="6"/>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="6"/>
+      <c r="B54" s="6">
+        <v>0</v>
+      </c>
       <c r="C54" s="6">
         <v>0</v>
       </c>
       <c r="D54" s="6">
         <v>0</v>
       </c>
-      <c r="E54" s="6"/>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="6"/>
+      <c r="B55" s="6">
+        <v>608.66667</v>
+      </c>
       <c r="C55" s="6">
-        <v>0</v>
+        <v>1139.250007</v>
       </c>
       <c r="D55" s="6">
-        <v>0</v>
-      </c>
-      <c r="E55" s="6"/>
+        <v>1926.990007</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1781.730007</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="6">
+        <v>0</v>
+      </c>
       <c r="C56" s="6">
-        <v>2351</v>
+        <v>0</v>
       </c>
       <c r="D56" s="6">
-        <v>2564</v>
-      </c>
-      <c r="E56" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="6"/>
+      <c r="B57" s="6">
+        <v>0</v>
+      </c>
       <c r="C57" s="6">
         <v>0</v>
       </c>
       <c r="D57" s="6">
         <v>0</v>
       </c>
-      <c r="E57" s="6"/>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="13"/>
+      <c r="B58" s="13">
+        <v>6983.66667</v>
+      </c>
       <c r="C58" s="13">
-        <v>2351</v>
+        <v>3639.250007</v>
       </c>
       <c r="D58" s="13">
-        <v>2564</v>
-      </c>
-      <c r="E58" s="13"/>
+        <v>5276.990007</v>
+      </c>
+      <c r="E58" s="13">
+        <v>4281.730007</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="11"/>
+      <c r="B59" s="11">
+        <v>8598.392327</v>
+      </c>
       <c r="C59" s="11">
-        <v>64300</v>
+        <v>11980.33557</v>
       </c>
       <c r="D59" s="11">
-        <v>73502</v>
-      </c>
-      <c r="E59" s="11"/>
+        <v>11625.727658</v>
+      </c>
+      <c r="E59" s="11">
+        <v>20519.521017</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="6"/>
+      <c r="B60" s="6">
+        <v>7500</v>
+      </c>
       <c r="C60" s="6">
-        <v>36000</v>
+        <v>7500</v>
       </c>
       <c r="D60" s="6">
-        <v>36000</v>
-      </c>
-      <c r="E60" s="6"/>
+        <v>7500</v>
+      </c>
+      <c r="E60" s="6">
+        <v>6000</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="6"/>
+      <c r="B61" s="6">
+        <v>0</v>
+      </c>
       <c r="C61" s="6">
         <v>0</v>
       </c>
       <c r="D61" s="6">
         <v>0</v>
       </c>
-      <c r="E61" s="6"/>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="6"/>
+      <c r="B62" s="6">
+        <v>1500</v>
+      </c>
       <c r="C62" s="6">
-        <v>1567</v>
+        <v>1500</v>
       </c>
       <c r="D62" s="6">
-        <v>1567</v>
-      </c>
-      <c r="E62" s="6"/>
+        <v>1500</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="6"/>
+      <c r="B63" s="6">
+        <v>0</v>
+      </c>
       <c r="C63" s="6">
         <v>0</v>
       </c>
       <c r="D63" s="6">
         <v>0</v>
       </c>
-      <c r="E63" s="6"/>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="6"/>
+      <c r="B64" s="6">
+        <v>0</v>
+      </c>
       <c r="C64" s="6">
         <v>0</v>
       </c>
       <c r="D64" s="6">
         <v>0</v>
       </c>
-      <c r="E64" s="6"/>
+      <c r="E64" s="6">
+        <v>32.29068</v>
+      </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="6"/>
+      <c r="B65" s="6">
+        <v>99.539425</v>
+      </c>
       <c r="C65" s="6">
-        <v>13145</v>
+        <v>189.540475</v>
       </c>
       <c r="D65" s="6">
-        <v>16811</v>
-      </c>
-      <c r="E65" s="6"/>
+        <v>240.229016</v>
+      </c>
+      <c r="E65" s="6">
+        <v>344.436519</v>
+      </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="6"/>
+      <c r="B66" s="6">
+        <v>825.854832</v>
+      </c>
       <c r="C66" s="6">
-        <v>45290</v>
+        <v>1635.864283</v>
       </c>
       <c r="D66" s="6">
-        <v>83152</v>
-      </c>
-      <c r="E66" s="6"/>
+        <v>2024.245312</v>
+      </c>
+      <c r="E66" s="6">
+        <v>2962.112843</v>
+      </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="11"/>
+      <c r="B67" s="11">
+        <v>9925.394257</v>
+      </c>
       <c r="C67" s="11">
-        <v>95996</v>
+        <v>10825.404758</v>
       </c>
       <c r="D67" s="11">
-        <v>138186</v>
-      </c>
-      <c r="E67" s="11"/>
+        <v>11264.474328</v>
+      </c>
+      <c r="E67" s="11">
+        <v>9338.840042</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="15"/>
+      <c r="B68" s="15">
+        <v>8538.764683</v>
+      </c>
       <c r="C68" s="15">
-        <v>135232</v>
+        <v>18367.588221</v>
       </c>
       <c r="D68" s="15">
-        <v>157576</v>
-      </c>
-      <c r="E68" s="15"/>
+        <v>9870.207112</v>
+      </c>
+      <c r="E68" s="15">
+        <v>10572.493315</v>
+      </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="15"/>
+      <c r="B69" s="15">
+        <v>6405.835435</v>
+      </c>
       <c r="C69" s="15">
-        <v>42901</v>
+        <v>14079.187242</v>
       </c>
       <c r="D69" s="15">
-        <v>49896</v>
-      </c>
-      <c r="E69" s="15"/>
+        <v>7522.109522</v>
+      </c>
+      <c r="E69" s="15">
+        <v>7593.081193</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17">
-        <v>1727</v>
-      </c>
-      <c r="D70" s="17">
-        <v>2090</v>
-      </c>
-      <c r="E70" s="17"/>
+      <c r="B70" s="6">
+        <v>72.526882</v>
+      </c>
+      <c r="C70" s="6">
+        <v>86.855571</v>
+      </c>
+      <c r="D70" s="6">
+        <v>59.399621</v>
+      </c>
+      <c r="E70" s="6">
+        <v>43.114888</v>
+      </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17">
-        <v>46695</v>
-      </c>
-      <c r="D71" s="17">
-        <v>53459</v>
-      </c>
-      <c r="E71" s="17"/>
+      <c r="B71" s="6">
+        <v>174.354225</v>
+      </c>
+      <c r="C71" s="6">
+        <v>423.934872</v>
+      </c>
+      <c r="D71" s="6">
+        <v>52.694812</v>
+      </c>
+      <c r="E71" s="6">
+        <v>190.129292</v>
+      </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17">
-        <v>9618</v>
-      </c>
-      <c r="D72" s="17">
-        <v>10636</v>
-      </c>
-      <c r="E72" s="17"/>
+      <c r="B72" s="6">
+        <v>311.095766</v>
+      </c>
+      <c r="C72" s="6">
+        <v>271.785355</v>
+      </c>
+      <c r="D72" s="6">
+        <v>397.637051</v>
+      </c>
+      <c r="E72" s="6">
+        <v>388.06617</v>
+      </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17">
-        <v>0</v>
-      </c>
-      <c r="D73" s="17">
-        <v>0</v>
-      </c>
-      <c r="E73" s="17"/>
+      <c r="B73" s="6">
+        <v>621.617397</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1136.298858</v>
+      </c>
+      <c r="D73" s="6">
+        <v>1016.677712</v>
+      </c>
+      <c r="E73" s="6">
+        <v>371.111628</v>
+      </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17">
-        <v>-1229</v>
-      </c>
-      <c r="D74" s="17">
-        <v>-743</v>
-      </c>
-      <c r="E74" s="17"/>
+      <c r="B74" s="6">
+        <v>424.679109</v>
+      </c>
+      <c r="C74" s="6">
+        <v>484.575537</v>
+      </c>
+      <c r="D74" s="6">
+        <v>351.729128</v>
+      </c>
+      <c r="E74" s="6">
+        <v>453.802689</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17">
-        <v>0</v>
-      </c>
-      <c r="D75" s="17">
-        <v>0</v>
-      </c>
-      <c r="E75" s="17"/>
+      <c r="B75" s="6">
+        <v>70.33333</v>
+      </c>
+      <c r="C75" s="6">
+        <v>78.842512</v>
+      </c>
+      <c r="D75" s="6">
+        <v>145.26</v>
+      </c>
+      <c r="E75" s="6">
+        <v>145.26</v>
+      </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17">
-        <v>0</v>
-      </c>
-      <c r="D76" s="17">
-        <v>0</v>
-      </c>
-      <c r="E76" s="17"/>
+      <c r="B76" s="6">
+        <v>16.795434</v>
+      </c>
+      <c r="C76" s="6">
+        <v>0</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17">
-        <v>0</v>
-      </c>
-      <c r="D77" s="17">
-        <v>0</v>
-      </c>
-      <c r="E77" s="17"/>
+      <c r="B77" s="6">
+        <v>0</v>
+      </c>
+      <c r="C77" s="6">
+        <v>0</v>
+      </c>
+      <c r="D77" s="6">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17">
-        <v>0</v>
-      </c>
-      <c r="D78" s="17">
-        <v>0</v>
-      </c>
-      <c r="E78" s="17"/>
+      <c r="B78" s="6">
+        <v>0</v>
+      </c>
+      <c r="C78" s="6">
+        <v>0</v>
+      </c>
+      <c r="D78" s="6">
+        <v>0</v>
+      </c>
+      <c r="E78" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17">
-        <v>0</v>
-      </c>
-      <c r="D79" s="17">
-        <v>0</v>
-      </c>
-      <c r="E79" s="17"/>
+      <c r="B79" s="6">
+        <v>0</v>
+      </c>
+      <c r="C79" s="6">
+        <v>0</v>
+      </c>
+      <c r="D79" s="6">
+        <v>0</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17">
-        <v>0</v>
-      </c>
-      <c r="D80" s="17">
-        <v>0</v>
-      </c>
-      <c r="E80" s="17"/>
+      <c r="B80" s="6">
+        <v>0</v>
+      </c>
+      <c r="C80" s="6">
+        <v>0</v>
+      </c>
+      <c r="D80" s="6">
+        <v>242.626643</v>
+      </c>
+      <c r="E80" s="6">
+        <v>461.585274</v>
+      </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17">
-        <v>0</v>
-      </c>
-      <c r="D81" s="17">
-        <v>0</v>
-      </c>
-      <c r="E81" s="17"/>
+      <c r="B81" s="6">
+        <v>0</v>
+      </c>
+      <c r="C81" s="6">
+        <v>0</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="15"/>
+      <c r="B82" s="15">
+        <v>615.784633</v>
+      </c>
       <c r="C82" s="15">
-        <v>36605</v>
+        <v>1963.793298</v>
       </c>
       <c r="D82" s="15">
-        <v>48417</v>
-      </c>
-      <c r="E82" s="15"/>
+        <v>372.592623</v>
+      </c>
+      <c r="E82" s="15">
+        <v>1216.862181</v>
+      </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17">
-        <v>0</v>
-      </c>
-      <c r="D83" s="17">
-        <v>0</v>
-      </c>
-      <c r="E83" s="17"/>
+      <c r="B83" s="6">
+        <v>1.7348</v>
+      </c>
+      <c r="C83" s="6">
+        <v>6.185</v>
+      </c>
+      <c r="D83" s="6">
+        <v>48.552035</v>
+      </c>
+      <c r="E83" s="6">
+        <v>57.992223</v>
+      </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17">
-        <v>0</v>
-      </c>
-      <c r="D84" s="17">
-        <v>0</v>
-      </c>
-      <c r="E84" s="17"/>
+      <c r="B84" s="6">
+        <v>5</v>
+      </c>
+      <c r="C84" s="6">
+        <v>1005.59229</v>
+      </c>
+      <c r="D84" s="6">
+        <v>29.091297</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0.070032</v>
+      </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="15"/>
+      <c r="B85" s="15">
+        <v>612.519433</v>
+      </c>
       <c r="C85" s="15">
-        <v>36664</v>
+        <v>964.386008000003</v>
       </c>
       <c r="D85" s="15">
-        <v>48630</v>
-      </c>
-      <c r="E85" s="15"/>
+        <v>392.053361</v>
+      </c>
+      <c r="E85" s="15">
+        <v>1274.784372</v>
+      </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17">
-        <v>5473</v>
-      </c>
-      <c r="D86" s="17">
-        <v>7426</v>
-      </c>
-      <c r="E86" s="17"/>
+      <c r="B86" s="6">
+        <v>53.060083</v>
+      </c>
+      <c r="C86" s="6">
+        <v>42.335537</v>
+      </c>
+      <c r="D86" s="6">
+        <v>58.808004</v>
+      </c>
+      <c r="E86" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B87" s="15"/>
+      <c r="B87" s="15">
+        <v>559.45935</v>
+      </c>
       <c r="C87" s="15">
-        <v>31192</v>
+        <v>922.050471000003</v>
       </c>
       <c r="D87" s="15">
-        <v>41204</v>
-      </c>
-      <c r="E87" s="15"/>
+        <v>333.245357</v>
+      </c>
+      <c r="E87" s="15">
+        <v>1274.784372</v>
+      </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19">
-        <v>163141</v>
-      </c>
-      <c r="D88" s="19">
-        <v>195586</v>
-      </c>
-      <c r="E88" s="19"/>
+      <c r="B88" s="6">
+        <v>6204.542458</v>
+      </c>
+      <c r="C88" s="6">
+        <v>18915.584941</v>
+      </c>
+      <c r="D88" s="6">
+        <v>11401.434267</v>
+      </c>
+      <c r="E88" s="6">
+        <v>17125.243317</v>
+      </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19">
-        <v>160579</v>
-      </c>
-      <c r="D89" s="19">
-        <v>186227</v>
-      </c>
-      <c r="E89" s="19"/>
+      <c r="B89" s="6">
+        <v>3489.340723</v>
+      </c>
+      <c r="C89" s="6">
+        <v>8899.456011</v>
+      </c>
+      <c r="D89" s="6">
+        <v>4658.072268</v>
+      </c>
+      <c r="E89" s="6">
+        <v>17009.999387</v>
+      </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19">
-        <v>127521</v>
-      </c>
-      <c r="D90" s="19">
-        <v>143917</v>
-      </c>
-      <c r="E90" s="19"/>
+      <c r="B90" s="6">
+        <v>7453.949626</v>
+      </c>
+      <c r="C90" s="6">
+        <v>16668.716231</v>
+      </c>
+      <c r="D90" s="6">
+        <v>10362.226368</v>
+      </c>
+      <c r="E90" s="6">
+        <v>16000.765616</v>
+      </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22">
-        <v>35620</v>
-      </c>
-      <c r="D91" s="22">
-        <v>51669</v>
-      </c>
-      <c r="E91" s="22"/>
+      <c r="B91" s="20">
+        <v>-1249.407168</v>
+      </c>
+      <c r="C91" s="20">
+        <v>2246.86871</v>
+      </c>
+      <c r="D91" s="20">
+        <v>1039.207899</v>
+      </c>
+      <c r="E91" s="20">
+        <v>1124.477701</v>
+      </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19">
-        <v>58237</v>
-      </c>
-      <c r="D92" s="19">
-        <v>109510</v>
-      </c>
-      <c r="E92" s="19"/>
+      <c r="B92" s="6">
+        <v>7116.795434</v>
+      </c>
+      <c r="C92" s="6">
+        <v>0</v>
+      </c>
+      <c r="D92" s="6">
+        <v>0</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22">
-        <v>57639</v>
-      </c>
-      <c r="D93" s="22">
-        <v>115134</v>
-      </c>
-      <c r="E93" s="22"/>
+      <c r="B93" s="20">
+        <v>7181.330421</v>
+      </c>
+      <c r="C93" s="20">
+        <v>767.084209</v>
+      </c>
+      <c r="D93" s="20">
+        <v>81.124895</v>
+      </c>
+      <c r="E93" s="20">
+        <v>2433.993015</v>
+      </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22">
-        <v>598</v>
-      </c>
-      <c r="D94" s="22">
-        <v>-5624</v>
-      </c>
-      <c r="E94" s="22"/>
+      <c r="B94" s="20">
+        <v>-64.534986999999</v>
+      </c>
+      <c r="C94" s="20">
+        <v>-767.084209</v>
+      </c>
+      <c r="D94" s="20">
+        <v>-81.124895</v>
+      </c>
+      <c r="E94" s="20">
+        <v>-2433.993015</v>
+      </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="18" t="s">
+      <c r="A95" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19">
-        <v>1190</v>
-      </c>
-      <c r="D95" s="19">
-        <v>0</v>
-      </c>
-      <c r="E95" s="19"/>
+      <c r="B95" s="6">
+        <v>7200</v>
+      </c>
+      <c r="C95" s="6">
+        <v>499.8</v>
+      </c>
+      <c r="D95" s="6">
+        <v>2500</v>
+      </c>
+      <c r="E95" s="6">
+        <v>3000</v>
+      </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19">
-        <v>21250</v>
-      </c>
-      <c r="D96" s="19">
-        <v>0</v>
-      </c>
-      <c r="E96" s="19"/>
+      <c r="B96" s="6">
+        <v>5300.870517</v>
+      </c>
+      <c r="C96" s="6">
+        <v>3192.520079</v>
+      </c>
+      <c r="D96" s="6">
+        <v>4116.067011</v>
+      </c>
+      <c r="E96" s="6">
+        <v>1211.679059</v>
+      </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22">
-        <v>-20060</v>
-      </c>
-      <c r="D97" s="22">
-        <v>0</v>
-      </c>
-      <c r="E97" s="22"/>
+      <c r="B97" s="20">
+        <v>1899.129483</v>
+      </c>
+      <c r="C97" s="20">
+        <v>-2692.720079</v>
+      </c>
+      <c r="D97" s="20">
+        <v>-1616.067011</v>
+      </c>
+      <c r="E97" s="20">
+        <v>1788.320941</v>
+      </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22">
-        <f>C91+C93+C97</f>
-        <v>73199</v>
-      </c>
-      <c r="D98" s="22">
-        <v>16153</v>
-      </c>
-      <c r="E98" s="22"/>
+      <c r="B98" s="20">
+        <v>585.187328</v>
+      </c>
+      <c r="C98" s="20">
+        <v>-1212.935578</v>
+      </c>
+      <c r="D98" s="20">
+        <v>-657.984007</v>
+      </c>
+      <c r="E98" s="20">
+        <v>478.805626999999</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection password="CF7A" sheet="1" selectLockedCells="1" objects="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="yd85lmMkZVdu2c6qmpPWPGf/GV5Vx/Dn9LbzgMkc4PMHeGEM0YhXOCuCj43CudNfZNxdoQ8Dd8/6M0JLewZ6qQ==" saltValue="HKxbh+uGGMaXbYKv5ngJLA==" spinCount="100000" sqref="B2:E67" name="区域2"/>
-    <protectedRange algorithmName="SHA-512" hashValue="v5SsmSWWPZCqlneZtaZoqOwRxx/lVHmmIq6GmMCJPEUdalzy68C1JqGj+SSAfBdfH+dUJqylgsrpJf5YjRCMpQ==" saltValue="3kGiwtT+zJKVRM4SOBsZtw==" spinCount="100000" sqref="B2:E67" name="区域1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="yd85lmMkZVdu2c6qmpPWPGf/GV5Vx/Dn9LbzgMkc4PMHeGEM0YhXOCuCj43CudNfZNxdoQ8Dd8/6M0JLewZ6qQ==" saltValue="HKxbh+uGGMaXbYKv5ngJLA==" spinCount="100000" sqref="B2:E13 C14:E14 C15:E15 C16:E16 B17:E59 C60:E60 B60 B61:E66 C67:E67 B67" name="区域2"/>
+    <protectedRange algorithmName="SHA-512" hashValue="v5SsmSWWPZCqlneZtaZoqOwRxx/lVHmmIq6GmMCJPEUdalzy68C1JqGj+SSAfBdfH+dUJqylgsrpJf5YjRCMpQ==" saltValue="3kGiwtT+zJKVRM4SOBsZtw==" spinCount="100000" sqref="B2:E13 C14:E14 C15:E15 C16:E16 B17:E59 C60:E60 B60 B61:E66 C67:E67 B67" name="区域1"/>
+    <protectedRange sqref="B62:E62" name="区域2_1"/>
+    <protectedRange sqref="B62:E62" name="区域1_1"/>
   </protectedRanges>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="93" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
